--- a/data/trans_camb/P25_8-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_8-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>9,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 9,43</t>
+          <t>-31,05; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 10,46</t>
+          <t>-33,46; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 15,87</t>
+          <t>-28,45; 14,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 31,26</t>
+          <t>-8,31; 24,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 9,2</t>
+          <t>-12,54; 19,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 14,71</t>
+          <t>-6,56; 27,13</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,13; 13,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 9,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; 15,74</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,05%</t>
+          <t>-32,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>-43,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>-21,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>59,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,54; 69,37</t>
+          <t>-77,98; 92,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,6; 80,42</t>
+          <t>-85,23; 90,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 147,01</t>
+          <t>-71,51; 117,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 307,09</t>
+          <t>-39,91; 319,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 59,52</t>
+          <t>-56,26; 242,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 94,79</t>
+          <t>-32,27; 308,44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-46,22; 96,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-61,45; 69,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-39,06; 117,78</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,44</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 7,07</t>
+          <t>-20,24; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 14,4</t>
+          <t>-17,8; 19,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 1,66</t>
+          <t>-18,95; 21,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 11,33</t>
+          <t>-26,9; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 1,62</t>
+          <t>-20,72; 13,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 8,07</t>
+          <t>-13,03; 23,93</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; 5,25</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 11,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 16,52</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>-14,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,07%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>-33,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,24%</t>
+          <t>-12,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-26,59%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,95; 58,95</t>
+          <t>-70,24; 147,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 116,64</t>
+          <t>-63,76; 205,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,67; 7,07</t>
+          <t>-66,45; 188,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 46,3</t>
+          <t>-70,03; 24,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 10,07</t>
+          <t>-57,36; 64,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 40,38</t>
+          <t>-34,96; 114,92</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-59,5; 29,87</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-47,82; 64,04</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,82; 90,46</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,83</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 21,22</t>
+          <t>-8,75; 16,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 33,54</t>
+          <t>-6,85; 19,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 3,9</t>
+          <t>-1,34; 26,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 9,51</t>
+          <t>-20,46; 2,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 9,84</t>
+          <t>-15,42; 9,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 17,28</t>
+          <t>-11,88; 15,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,25; 5,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,65; 9,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 15,15</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,83%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>-12,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-16,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 223,07</t>
+          <t>-50,81; 282,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 343,46</t>
+          <t>-45,08; 367,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 23,64</t>
+          <t>-14,44; 454,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 52,21</t>
+          <t>-59,17; 14,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 66,06</t>
+          <t>-46,47; 47,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 111,9</t>
+          <t>-35,11; 74,16</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-49,27; 31,81</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-36,54; 56,01</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-20,32; 83,12</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-12,82</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-9,57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-10,97</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-4,33</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-7,96</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-6,9</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>-6,78</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-8,13</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,09</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-6,47</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-4,82</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 6,55</t>
+          <t>-19,24; 9,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 3,24</t>
+          <t>-26,28; -0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 1,06</t>
+          <t>-23,64; 4,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 6,6</t>
+          <t>-22,23; 0,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -0,22</t>
+          <t>-12,84; 11,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 2,83</t>
+          <t>-16,31; 8,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-17,18; 0,35</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-15,85; 2,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-16,1; 1,91</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>-14,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,26%</t>
+          <t>-41,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-28,95%</t>
+          <t>-30,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>-39,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,51%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-15,73%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-27,35%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-23,69%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-23,28%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 31,66</t>
+          <t>-49,19; 40,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 15,99</t>
+          <t>-68,43; 2,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 5,69</t>
+          <t>-61,7; 19,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 28,66</t>
+          <t>-67,2; 5,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,03; -0,76</t>
+          <t>-39,71; 57,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 11,86</t>
+          <t>-49,23; 40,11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-50,58; 1,99</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-46,81; 9,07</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-48,2; 6,88</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-8,4</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 4,25</t>
+          <t>-35,94; 1,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 15,45</t>
+          <t>-14,14; 23,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 8,45</t>
+          <t>-23,2; 12,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 14,36</t>
+          <t>-21,87; 9,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 3,09</t>
+          <t>-14,41; 16,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 11,82</t>
+          <t>-9,72; 24,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 1,58</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 17,53</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 16,26</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-35,89%</t>
+          <t>-58,99%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>-25,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>33,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-43,09%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-79,3; 50,98</t>
+          <t>-94,91; 23,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,45; 163,65</t>
+          <t>-63,66; 245,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 47,36</t>
+          <t>-87,81; 158,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 92,5</t>
+          <t>-69,06; 66,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,77; 23,05</t>
+          <t>-48,34; 119,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 85,66</t>
+          <t>-35,97; 173,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-72,88; 19,4</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-37,8; 127,25</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-40,64; 121,91</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,33</t>
+          <t>-18,5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-16,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-11,03</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-9,7</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-6,26</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 1,91</t>
+          <t>-36,7; -1,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 7,68</t>
+          <t>-36,07; 1,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 3,02</t>
+          <t>-32,81; 4,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 46,92</t>
+          <t>-21,06; 13,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -0,89</t>
+          <t>-20,57; 13,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 27,17</t>
+          <t>-18,27; 18,93</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-23,35; 1,34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-21,9; 3,19</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-19,64; 6,85</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-49,03%</t>
+          <t>-58,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>-52,35%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-39,14%</t>
+          <t>-47,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>-19,11%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-43,13%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-38,72%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-34,04%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-21,96%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 20,63</t>
+          <t>-86,48; 7,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 55,57</t>
+          <t>-84,19; 16,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,3; 24,39</t>
+          <t>-79,25; 32,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 297,04</t>
+          <t>-64,85; 75,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-68,77; -3,79</t>
+          <t>-61,39; 84,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 143,91</t>
+          <t>-52,91; 113,39</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-65,05; 8,05</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-63,08; 19,16</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-56,86; 33,92</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-6,07</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 2,04</t>
+          <t>-13,47; 0,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 7,28</t>
+          <t>-11,83; 3,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -1,6</t>
+          <t>-10,57; 4,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,3</t>
+          <t>-11,78; -0,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -1,21</t>
+          <t>-9,12; 3,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 6,76</t>
+          <t>-5,06; 8,76</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; -1,46</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 1,46</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 4,46</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>-25,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>-17,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>-11,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-24,94%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-12,8%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 12,17</t>
+          <t>-49,51; 5,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 44,37</t>
+          <t>-44,76; 16,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -7,02</t>
+          <t>-39,94; 24,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 45,37</t>
+          <t>-41,27; -1,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -5,86</t>
+          <t>-31,2; 16,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 33,13</t>
+          <t>-17,5; 38,62</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-39,53; -6,76</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-29,66; 6,92</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-19,61; 20,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
